--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>初次使用</t>
+    <t>初次使用(1min)</t>
   </si>
   <si>
     <t>练习后使用</t>
@@ -42,16 +42,43 @@
     <t>Slide</t>
   </si>
   <si>
+    <t>1刘</t>
+  </si>
+  <si>
     <t>42 12</t>
   </si>
   <si>
+    <t>2李</t>
+  </si>
+  <si>
     <t>50 7</t>
   </si>
   <si>
+    <t>48 2</t>
+  </si>
+  <si>
+    <t>30 1</t>
+  </si>
+  <si>
+    <t>3王</t>
+  </si>
+  <si>
     <t>65 7</t>
   </si>
   <si>
     <t>43 1</t>
+  </si>
+  <si>
+    <t>4段</t>
+  </si>
+  <si>
+    <t>53 4</t>
+  </si>
+  <si>
+    <t>46 9</t>
+  </si>
+  <si>
+    <t>36 3</t>
   </si>
 </sst>
 </file>
@@ -64,14 +91,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,48 +549,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,97 +603,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,7 +1052,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1121,11 +1141,11 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1140,14 +1160,18 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1">
-        <v>2</v>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1159,14 +1183,14 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>3</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1180,10 +1204,18 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Number</t>
   </si>
@@ -24,7 +24,7 @@
     <t>初次使用(1min)</t>
   </si>
   <si>
-    <t>练习后使用</t>
+    <t>练习后使用（5min)</t>
   </si>
   <si>
     <t>文章</t>
@@ -60,6 +60,12 @@
     <t>30 1</t>
   </si>
   <si>
+    <t>63 6</t>
+  </si>
+  <si>
+    <t>52 2</t>
+  </si>
+  <si>
     <t>3王</t>
   </si>
   <si>
@@ -69,6 +75,15 @@
     <t>43 1</t>
   </si>
   <si>
+    <t>38 1</t>
+  </si>
+  <si>
+    <t>81 3</t>
+  </si>
+  <si>
+    <t>54 2</t>
+  </si>
+  <si>
     <t>4段</t>
   </si>
   <si>
@@ -79,6 +94,21 @@
   </si>
   <si>
     <t>36 3</t>
+  </si>
+  <si>
+    <t>75 3</t>
+  </si>
+  <si>
+    <t>45 2</t>
+  </si>
+  <si>
+    <t>5葛</t>
+  </si>
+  <si>
+    <t>45 8</t>
+  </si>
+  <si>
+    <t>35 3</t>
   </si>
 </sst>
 </file>
@@ -694,9 +724,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,7 +1085,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1175,8 +1208,12 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1184,20 +1221,26 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1205,31 +1248,41 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13620"/>
+    <workbookView windowWidth="13260" windowHeight="6132"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Number</t>
   </si>
@@ -42,13 +42,13 @@
     <t>Slide</t>
   </si>
   <si>
-    <t>1刘</t>
+    <t>1刘z</t>
   </si>
   <si>
     <t>42 12</t>
   </si>
   <si>
-    <t>2李</t>
+    <t>2李jh</t>
   </si>
   <si>
     <t>50 7</t>
@@ -66,7 +66,7 @@
     <t>52 2</t>
   </si>
   <si>
-    <t>3王</t>
+    <t>3王zt</t>
   </si>
   <si>
     <t>65 7</t>
@@ -78,13 +78,16 @@
     <t>38 1</t>
   </si>
   <si>
-    <t>81 3</t>
+    <t>90 3</t>
   </si>
   <si>
     <t>54 2</t>
   </si>
   <si>
-    <t>4段</t>
+    <t>100 3（Master）</t>
+  </si>
+  <si>
+    <t>4段yh</t>
   </si>
   <si>
     <t>53 4</t>
@@ -102,13 +105,31 @@
     <t>45 2</t>
   </si>
   <si>
-    <t>5葛</t>
+    <t>5葛ys</t>
   </si>
   <si>
     <t>45 8</t>
   </si>
   <si>
     <t>35 3</t>
+  </si>
+  <si>
+    <t>6马wy</t>
+  </si>
+  <si>
+    <t>62 4</t>
+  </si>
+  <si>
+    <t>37 9</t>
+  </si>
+  <si>
+    <t>24 1</t>
+  </si>
+  <si>
+    <t>80 6</t>
+  </si>
+  <si>
+    <t>马：布局熟悉，触碰抬起选择比扳机等按下效率高，评价为：很好用</t>
   </si>
 </sst>
 </file>
@@ -724,12 +745,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1219,7 +1237,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1238,35 +1256,38 @@
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1275,13 +1296,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1294,20 +1315,33 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1"/>
@@ -1418,7 +1452,10 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <f>-1-1</f>
+        <v>-2</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13260" windowHeight="6132"/>
+    <workbookView windowWidth="30720" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1452,10 +1452,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <f>-1-1</f>
-        <v>-2</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
